--- a/Time spent.xlsx
+++ b/Time spent.xlsx
@@ -11,12 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Vendor/Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Analysis time sum for all execution trees (s)</t>
   </si>
   <si>
     <t>Execution tree count (#)</t>
@@ -346,9 +343,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.71"/>
-    <col customWidth="1" min="2" max="2" width="45.43"/>
-    <col customWidth="1" min="3" max="3" width="23.43"/>
-    <col customWidth="1" min="4" max="4" width="29.57"/>
+    <col customWidth="1" min="2" max="2" width="31.71"/>
+    <col customWidth="1" min="3" max="3" width="32.0"/>
+    <col customWidth="1" min="4" max="4" width="46.0"/>
     <col customWidth="1" min="5" max="5" width="44.29"/>
     <col customWidth="1" min="6" max="6" width="34.29"/>
     <col customWidth="1" min="7" max="7" width="24.29"/>
@@ -379,10 +376,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -404,365 +398,321 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1236.85</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D12" si="1">C2-G2</f>
+        <v>1214.95</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E12" si="2">round((D2/C2)*100,2)</f>
+        <v>98.23</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H12" si="3">100-E2</f>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
-        <v>294.88</v>
-      </c>
-      <c r="C2" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D12" si="1">round(B2/C2,2)</f>
-        <v>36.86</v>
-      </c>
-      <c r="E2" s="4">
-        <f t="shared" ref="E2:E12" si="2">D2-H2</f>
-        <v>14.96</v>
-      </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:F12" si="3">round((E2/D2)*100,2)</f>
-        <v>40.59</v>
-      </c>
-      <c r="G2" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>21.9</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:I12" si="4">100-F2</f>
-        <v>59.41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="B3" s="3">
-        <v>18229.24</v>
+        <v>62.0</v>
       </c>
       <c r="C3" s="3">
-        <v>62.0</v>
+        <v>1494.02</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>294.02</v>
+        <v>1405.87</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="2"/>
-        <v>205.87</v>
+        <v>94.1</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" si="3"/>
-        <v>70.02</v>
+      <c r="F3" s="3">
+        <v>43.0</v>
       </c>
       <c r="G3" s="3">
-        <v>43.0</v>
-      </c>
-      <c r="H3" s="3">
         <v>88.15</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" si="4"/>
-        <v>29.98</v>
+      <c r="H3" s="4">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>55142.86</v>
+        <v>71.0</v>
       </c>
       <c r="C4" s="3">
-        <v>71.0</v>
+        <v>1976.66</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
-        <v>776.66</v>
+        <v>1789.12</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="2"/>
-        <v>589.12</v>
+        <v>90.51</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" si="3"/>
-        <v>75.85</v>
+      <c r="F4" s="3">
+        <v>57.0</v>
       </c>
       <c r="G4" s="3">
-        <v>57.0</v>
-      </c>
-      <c r="H4" s="3">
         <v>187.54</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" si="4"/>
-        <v>24.15</v>
+      <c r="H4" s="4">
+        <f t="shared" si="3"/>
+        <v>9.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>512.75</v>
+        <v>7.0</v>
       </c>
       <c r="C5" s="3">
-        <v>7.0</v>
+        <v>1273.25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>73.25</v>
+        <v>1273.21</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="2"/>
-        <v>73.21</v>
+        <v>100</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="3"/>
-        <v>99.95</v>
+      <c r="F5" s="3">
+        <v>6.0</v>
       </c>
       <c r="G5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
         <v>6.0</v>
       </c>
-      <c r="H5" s="3">
-        <v>0.04</v>
+      <c r="C6" s="3">
+        <v>1381.0</v>
       </c>
-      <c r="I5" s="4">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1086.0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>1368.6</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="2"/>
-        <v>168.6</v>
+        <v>99.1</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="3"/>
-        <v>93.15</v>
+      <c r="F6" s="3">
+        <v>6.0</v>
       </c>
       <c r="G6" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="H6" s="3">
         <v>12.4</v>
       </c>
-      <c r="I6" s="4">
-        <f t="shared" si="4"/>
-        <v>6.85</v>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>635.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="3">
-        <v>1.0</v>
+        <v>1835.0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>635</v>
+        <v>1510.72</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="2"/>
-        <v>310.72</v>
+        <v>82.33</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="3"/>
-        <v>48.93</v>
+      <c r="F7" s="3">
+        <v>18.0</v>
       </c>
       <c r="G7" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="H7" s="3">
         <v>324.28</v>
       </c>
-      <c r="I7" s="4">
-        <f t="shared" si="4"/>
-        <v>51.07</v>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>17.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>64578.36</v>
+        <v>29.0</v>
       </c>
       <c r="C8" s="3">
-        <v>29.0</v>
+        <v>3426.84</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>2226.84</v>
+        <v>2017.45</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="2"/>
-        <v>817.45</v>
+        <v>58.87</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="3"/>
-        <v>36.71</v>
+      <c r="F8" s="3">
+        <v>19.0</v>
       </c>
       <c r="G8" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="H8" s="3">
         <v>1409.39</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" si="4"/>
-        <v>63.29</v>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>41.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>62720.0</v>
+        <v>28.0</v>
       </c>
       <c r="C9" s="3">
-        <v>28.0</v>
+        <v>3440.0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>2240</v>
+        <v>1751.11</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="2"/>
-        <v>551.11</v>
+        <v>50.9</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="3"/>
-        <v>24.6</v>
+      <c r="F9" s="3">
+        <v>20.0</v>
       </c>
       <c r="G9" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="H9" s="3">
         <v>1688.89</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="4"/>
-        <v>75.4</v>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>49.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
-        <v>11652.08</v>
+        <v>44.0</v>
       </c>
       <c r="C10" s="3">
-        <v>44.0</v>
+        <v>1464.82</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>264.82</v>
+        <v>1385.8</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="2"/>
-        <v>185.8</v>
+        <v>94.61</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="3"/>
-        <v>70.16</v>
+      <c r="F10" s="3">
+        <v>39.0</v>
       </c>
       <c r="G10" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="H10" s="3">
         <v>79.02</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="4"/>
-        <v>29.84</v>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>5.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
-        <v>29917.02</v>
+        <v>42.0</v>
       </c>
       <c r="C11" s="3">
-        <v>42.0</v>
+        <v>1912.31</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>712.31</v>
+        <v>1497.32</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="2"/>
-        <v>297.32</v>
+        <v>78.3</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="3"/>
-        <v>41.74</v>
+      <c r="F11" s="3">
+        <v>41.0</v>
       </c>
       <c r="G11" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="H11" s="3">
         <v>414.99</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="4"/>
-        <v>58.26</v>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>21.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
-        <v>27800.21</v>
+        <v>42.0</v>
       </c>
       <c r="C12" s="3">
-        <v>42.0</v>
+        <v>1861.91</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>661.91</v>
+        <v>1600.94</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>400.94</v>
+        <v>85.98</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="3"/>
-        <v>60.57</v>
+      <c r="F12" s="3">
+        <v>46.0</v>
       </c>
       <c r="G12" s="3">
-        <v>46.0</v>
-      </c>
-      <c r="H12" s="3">
         <v>260.97</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="4"/>
-        <v>39.43</v>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>14.02</v>
       </c>
     </row>
     <row r="13">
@@ -778,7 +728,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
